--- a/Attendence.xlsx
+++ b/Attendence.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,12 +384,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anuj</t>
+          <t>Bruce</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -399,7 +399,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bruce</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -414,7 +414,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>Natasha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -429,7 +429,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -444,7 +444,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Natasha</t>
+          <t>Steve</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -459,12 +459,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Superman</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Steve</t>
+          <t>Thor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -489,40 +489,10 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Superman</t>
+          <t>Tony</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Thor</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Tony</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
